--- a/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/p2.xlsx
+++ b/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/p2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.02.2025\2 нед с 03.02.2025 по 17.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E686FF1-10B7-4B15-88DB-23E973D9B24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0A04E0-3E9E-43F5-A350-5C167C768E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{760CAD9D-0C8C-4B51-A28F-26AB52C7400B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Артикул</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Термонаклейка Цветы Колибри 2шт</t>
+  </si>
+  <si>
+    <t>Термонаклейка Крылья красочные маслом</t>
   </si>
 </sst>
 </file>
@@ -97,7 +100,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,12 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,13 +468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C640322C-94A3-4ECA-B109-6AEDCC479578}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -493,53 +506,53 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3">
+        <v>66</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1825</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2" si="0">F2/2</f>
         <v>33</v>
-      </c>
-      <c r="E2" s="2">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1825</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2">
-        <f t="shared" ref="I2:I9" si="0">F2/2</f>
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="C3" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>1825</v>
@@ -548,28 +561,28 @@
         <v>8</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" ref="I3:I10" si="1">F3/2</f>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>2.1</v>
       </c>
       <c r="C4" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>1825</v>
@@ -578,22 +591,22 @@
         <v>8</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="C5" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>30</v>
@@ -608,28 +621,28 @@
         <v>8</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="C6" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
       </c>
       <c r="F6" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2">
         <v>1825</v>
@@ -638,28 +651,28 @@
         <v>8</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="C7" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>1825</v>
@@ -668,28 +681,28 @@
         <v>8</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
         <v>1825</v>
@@ -698,22 +711,22 @@
         <v>8</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2">
         <v>30</v>
@@ -728,7 +741,37 @@
         <v>8</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1825</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
